--- a/analysis/Validation_accuracy_over_time.xlsx
+++ b/analysis/Validation_accuracy_over_time.xlsx
@@ -10361,7 +10361,7 @@
   <dimension ref="A3:G232"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
